--- a/out.xlsx
+++ b/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
   <si>
     <t>from_id</t>
   </si>
@@ -28,196 +28,427 @@
     <t>b_numbers</t>
   </si>
   <si>
-    <t>06 07 14 17 23 27</t>
+    <t>01 06 15 19 23 30</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03 05 14 17 20 24</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01 06 18 23 27 28</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>03 06 17 22 23 30</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>07 08 15 23 28 31</t>
-  </si>
-  <si>
-    <t>06 10 13 18 25 29</t>
+    <t>03 10 15 20 26 31</t>
+  </si>
+  <si>
+    <t>03 12 13 23 26 31</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>05 12 13 25 27 30</t>
+  </si>
+  <si>
+    <t>05 10 19 21 26 30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>07 10 14 19 23 28</t>
+  </si>
+  <si>
+    <t>01 08 19 21 22 24</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>04 09 19 22 23 27</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>04 06 17 18 25 31</t>
-  </si>
-  <si>
-    <t>05 12 15 17 26 30</t>
-  </si>
-  <si>
-    <t>07 08 14 21 27 29</t>
-  </si>
-  <si>
-    <t>04 07 13 18 28 32</t>
-  </si>
-  <si>
-    <t>03 12 18 22 28 31</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>04 12 15 17 23 25</t>
-  </si>
-  <si>
-    <t>01 12 21 22 27 31</t>
-  </si>
-  <si>
-    <t>04 08 16 19 27 29</t>
-  </si>
-  <si>
-    <t>06 08 14 19 24 31</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>04 09 13 22 23 26</t>
-  </si>
-  <si>
-    <t>01 09 18 22 27 31</t>
-  </si>
-  <si>
-    <t>01 04 15 22 23 30</t>
-  </si>
-  <si>
-    <t>03 12 14 19 25 29</t>
-  </si>
-  <si>
-    <t>02 05 18 24 26 31</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>02 09 14 17 21 25</t>
-  </si>
-  <si>
-    <t>03 07 16 18 26 28</t>
-  </si>
-  <si>
-    <t>05 07 20 22 28 32</t>
-  </si>
-  <si>
-    <t>06 09 13 23 25 28</t>
-  </si>
-  <si>
-    <t>03 12 15 19 25 30</t>
-  </si>
-  <si>
-    <t>06 09 13 24 25 29</t>
-  </si>
-  <si>
-    <t>02 04 13 18 25 30</t>
-  </si>
-  <si>
-    <t>02 12 15 20 23 30</t>
-  </si>
-  <si>
-    <t>06 09 13 24 27 31</t>
-  </si>
-  <si>
-    <t>07 10 14 17 23 32</t>
-  </si>
-  <si>
-    <t>01 12 15 24 27 31</t>
-  </si>
-  <si>
-    <t>03 10 17 21 23 32</t>
-  </si>
-  <si>
-    <t>02 12 13 20 27 30</t>
-  </si>
-  <si>
-    <t>01 10 15 19 22 27</t>
-  </si>
-  <si>
-    <t>02 09 16 19 22 26</t>
-  </si>
-  <si>
-    <t>04 12 18 19 20 31</t>
-  </si>
-  <si>
-    <t>07 10 14 17 26 28</t>
-  </si>
-  <si>
-    <t>03 12 14 23 24 32</t>
-  </si>
-  <si>
-    <t>02 08 17 18 22 25</t>
-  </si>
-  <si>
-    <t>02 07 14 19 22 28</t>
-  </si>
-  <si>
-    <t>07 12 13 20 23 27</t>
-  </si>
-  <si>
-    <t>01 07 20 22 28 30</t>
-  </si>
-  <si>
-    <t>05 09 13 24 27 30</t>
-  </si>
-  <si>
-    <t>02 08 17 24 25 28</t>
-  </si>
-  <si>
-    <t>06 10 14 19 23 24</t>
-  </si>
-  <si>
-    <t>02 09 16 19 27 29</t>
-  </si>
-  <si>
-    <t>05 10 14 24 25 31</t>
-  </si>
-  <si>
-    <t>05 10 15 17 21 32</t>
-  </si>
-  <si>
-    <t>04 09 18 19 23 32</t>
-  </si>
-  <si>
-    <t>05 07 16 20 26 30</t>
-  </si>
-  <si>
-    <t>02 07 20 23 27 31</t>
-  </si>
-  <si>
-    <t>01 09 13 20 26 28</t>
-  </si>
-  <si>
-    <t>07 09 14 17 26 31</t>
-  </si>
-  <si>
-    <t>01 12 16 22 24 31</t>
-  </si>
-  <si>
-    <t>04 09 21 22 23 29</t>
-  </si>
-  <si>
-    <t>02 06 13 22 23 28</t>
-  </si>
-  <si>
-    <t>02 05 16 19 28 32</t>
-  </si>
-  <si>
-    <t>02 08 15 22 23 28</t>
-  </si>
-  <si>
-    <t>02 05 14 21 22 30</t>
-  </si>
-  <si>
-    <t>02 08 13 18 21 27</t>
+    <t>03 12 13 23 24 32</t>
+  </si>
+  <si>
+    <t>03 07 17 18 26 31</t>
+  </si>
+  <si>
+    <t>02 10 15 22 23 30</t>
+  </si>
+  <si>
+    <t>02 05 16 21 25 28</t>
+  </si>
+  <si>
+    <t>01 05 14 24 25 32</t>
+  </si>
+  <si>
+    <t>04 08 13 19 22 32</t>
+  </si>
+  <si>
+    <t>02 10 13 20 24 27</t>
+  </si>
+  <si>
+    <t>01 04 15 20 26 29</t>
+  </si>
+  <si>
+    <t>05 12 13 17 27 30</t>
+  </si>
+  <si>
+    <t>02 07 14 22 25 28</t>
+  </si>
+  <si>
+    <t>07 08 19 20 21 24</t>
+  </si>
+  <si>
+    <t>05 10 13 21 22 29</t>
+  </si>
+  <si>
+    <t>03 08 19 22 27 32</t>
+  </si>
+  <si>
+    <t>01 12 14 17 25 28</t>
+  </si>
+  <si>
+    <t>02 05 15 20 21 29</t>
+  </si>
+  <si>
+    <t>02 08 17 19 25 30</t>
+  </si>
+  <si>
+    <t>01 05 17 22 26 27</t>
+  </si>
+  <si>
+    <t>02 05 15 21 22 28</t>
+  </si>
+  <si>
+    <t>03 12 15 19 20 25</t>
+  </si>
+  <si>
+    <t>04 05 19 20 26 27</t>
+  </si>
+  <si>
+    <t>02 06 16 19 27 31</t>
+  </si>
+  <si>
+    <t>02 06 17 19 20 30</t>
+  </si>
+  <si>
+    <t>05 07 16 19 20 27</t>
+  </si>
+  <si>
+    <t>05 08 13 17 26 31</t>
+  </si>
+  <si>
+    <t>03 04 19 23 24 30</t>
+  </si>
+  <si>
+    <t>07 10 18 19 22 24</t>
+  </si>
+  <si>
+    <t>03 12 17 20 27 28</t>
+  </si>
+  <si>
+    <t>01 07 15 18 23 28</t>
+  </si>
+  <si>
+    <t>02 07 20 21 25 27</t>
+  </si>
+  <si>
+    <t>09 12 18 20 23 29</t>
+  </si>
+  <si>
+    <t>09 12 17 22 23 25</t>
+  </si>
+  <si>
+    <t>07 09 16 20 25 29</t>
+  </si>
+  <si>
+    <t>03 06 14 17 25 29</t>
+  </si>
+  <si>
+    <t>03 09 13 18 30 31</t>
+  </si>
+  <si>
+    <t>06 09 19 20 30 31</t>
+  </si>
+  <si>
+    <t>01 06 17 24 25 29</t>
+  </si>
+  <si>
+    <t>06 09 13 17 24 25</t>
+  </si>
+  <si>
+    <t>05 07 17 21 22 30</t>
+  </si>
+  <si>
+    <t>03 04 15 17 24 28</t>
+  </si>
+  <si>
+    <t>01 06 15 23 28 30</t>
+  </si>
+  <si>
+    <t>03 06 17 18 20 26</t>
+  </si>
+  <si>
+    <t>01 10 15 17 22 24</t>
+  </si>
+  <si>
+    <t>02 08 16 19 23 28</t>
+  </si>
+  <si>
+    <t>03 12 19 20 26 31</t>
+  </si>
+  <si>
+    <t>01 04 15 17 21 24</t>
+  </si>
+  <si>
+    <t>02 04 16 23 27 32</t>
+  </si>
+  <si>
+    <t>05 09 15 22 23 28</t>
+  </si>
+  <si>
+    <t>07 08 17 19 22 28</t>
+  </si>
+  <si>
+    <t>03 09 17 18 24 25</t>
+  </si>
+  <si>
+    <t>06 09 17 18 26 31</t>
+  </si>
+  <si>
+    <t>02 06 18 19 25 32</t>
+  </si>
+  <si>
+    <t>07 09 14 22 23 31</t>
+  </si>
+  <si>
+    <t>03 08 14 18 25 29</t>
+  </si>
+  <si>
+    <t>02 08 13 18 24 25</t>
+  </si>
+  <si>
+    <t>09 10 14 19 23 32</t>
+  </si>
+  <si>
+    <t>09 10 13 20 21 31</t>
+  </si>
+  <si>
+    <t>03 04 14 20 21 29</t>
+  </si>
+  <si>
+    <t>03 05 20 25 26 28</t>
+  </si>
+  <si>
+    <t>03 09 17 19 26 32</t>
+  </si>
+  <si>
+    <t>01 05 14 22 26 30</t>
+  </si>
+  <si>
+    <t>04 09 16 17 23 24</t>
+  </si>
+  <si>
+    <t>01 06 15 19 26 32</t>
+  </si>
+  <si>
+    <t>02 06 13 25 26 27</t>
+  </si>
+  <si>
+    <t>01 08 18 20 21 29</t>
+  </si>
+  <si>
+    <t>02 10 18 19 20 25</t>
+  </si>
+  <si>
+    <t>05 07 15 20 28 32</t>
+  </si>
+  <si>
+    <t>01 09 18 19 23 32</t>
+  </si>
+  <si>
+    <t>02 12 16 19 25 32</t>
+  </si>
+  <si>
+    <t>02 10 15 17 21 32</t>
+  </si>
+  <si>
+    <t>01 10 16 18 24 31</t>
+  </si>
+  <si>
+    <t>04 08 13 22 26 31</t>
+  </si>
+  <si>
+    <t>03 06 18 22 25 29</t>
+  </si>
+  <si>
+    <t>07 09 19 20 24 27</t>
+  </si>
+  <si>
+    <t>07 10 18 24 26 31</t>
+  </si>
+  <si>
+    <t>01 12 13 24 26 28</t>
+  </si>
+  <si>
+    <t>01 07 14 20 27 28</t>
+  </si>
+  <si>
+    <t>05 12 16 25 28 31</t>
+  </si>
+  <si>
+    <t>01 07 14 20 23 29</t>
+  </si>
+  <si>
+    <t>05 10 13 22 25 32</t>
+  </si>
+  <si>
+    <t>03 08 18 19 26 30</t>
+  </si>
+  <si>
+    <t>03 04 15 19 25 30</t>
+  </si>
+  <si>
+    <t>02 09 13 17 22 31</t>
+  </si>
+  <si>
+    <t>03 07 14 20 21 25</t>
+  </si>
+  <si>
+    <t>05 10 15 18 27 29</t>
+  </si>
+  <si>
+    <t>01 04 17 18 25 27</t>
+  </si>
+  <si>
+    <t>03 08 13 24 25 26</t>
+  </si>
+  <si>
+    <t>07 08 15 18 23 27</t>
+  </si>
+  <si>
+    <t>01 08 14 22 23 28</t>
+  </si>
+  <si>
+    <t>09 12 13 22 25 29</t>
+  </si>
+  <si>
+    <t>09 10 16 19 24 31</t>
+  </si>
+  <si>
+    <t>06 09 13 19 27 30</t>
+  </si>
+  <si>
+    <t>05 10 17 24 28 30</t>
+  </si>
+  <si>
+    <t>04 12 14 17 21 29</t>
+  </si>
+  <si>
+    <t>03 05 13 20 25 32</t>
+  </si>
+  <si>
+    <t>04 08 15 19 21 29</t>
+  </si>
+  <si>
+    <t>01 05 16 22 27 29</t>
+  </si>
+  <si>
+    <t>01 06 17 20 25 30</t>
+  </si>
+  <si>
+    <t>02 07 13 20 21 29</t>
+  </si>
+  <si>
+    <t>07 08 15 21 26 29</t>
+  </si>
+  <si>
+    <t>07 08 18 20 27 31</t>
+  </si>
+  <si>
+    <t>05 06 16 17 25 26</t>
+  </si>
+  <si>
+    <t>01 07 20 21 28 29</t>
+  </si>
+  <si>
+    <t>01 06 15 18 20 31</t>
+  </si>
+  <si>
+    <t>09 10 17 19 22 27</t>
+  </si>
+  <si>
+    <t>02 10 14 17 27 29</t>
+  </si>
+  <si>
+    <t>01 12 14 19 21 30</t>
+  </si>
+  <si>
+    <t>01 06 13 18 21 27</t>
+  </si>
+  <si>
+    <t>03 04 14 18 22 29</t>
+  </si>
+  <si>
+    <t>04 09 13 20 23 25</t>
+  </si>
+  <si>
+    <t>05 07 13 22 24 27</t>
+  </si>
+  <si>
+    <t>07 09 15 20 24 31</t>
+  </si>
+  <si>
+    <t>02 07 14 22 30 31</t>
+  </si>
+  <si>
+    <t>05 09 16 24 25 29</t>
+  </si>
+  <si>
+    <t>03 09 16 19 20 30</t>
+  </si>
+  <si>
+    <t>05 12 21 23 26 27</t>
+  </si>
+  <si>
+    <t>02 10 18 24 25 31</t>
+  </si>
+  <si>
+    <t>03 05 15 25 26 32</t>
+  </si>
+  <si>
+    <t>01 05 14 20 27 29</t>
+  </si>
+  <si>
+    <t>07 12 14 17 20 30</t>
+  </si>
+  <si>
+    <t>04 10 13 19 27 32</t>
+  </si>
+  <si>
+    <t>04 10 17 19 20 32</t>
+  </si>
+  <si>
+    <t>07 10 16 19 21 26</t>
+  </si>
+  <si>
+    <t>04 10 14 20 23 29</t>
+  </si>
+  <si>
+    <t>02 12 13 19 30 32</t>
   </si>
 </sst>
 </file>
@@ -549,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -605,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -619,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -633,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -647,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -661,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -675,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -689,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -703,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -717,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -731,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -745,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -759,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -773,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -787,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -801,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -815,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -829,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -843,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -857,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -871,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -885,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -899,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -913,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -927,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -941,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -955,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -969,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -983,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -997,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1011,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1025,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1039,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1053,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1067,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1081,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1095,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1109,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1123,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1137,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1151,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1165,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1179,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1193,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1207,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1221,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1235,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1249,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1263,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1277,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1291,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1305,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1319,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1333,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1347,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1361,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1375,10 +1606,1088 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>99</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>165</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>237</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>342</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>361</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>626</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>714</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>721</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>828</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>945</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>979</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1141</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>1435</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1540</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>2010</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>2355</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>2414</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>2821</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>2918</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>2985</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>3394</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>3454</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>3463</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>3484</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>3584</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>3634</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>3781</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>3788</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>4137</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>4213</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>4217</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>4323</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>4342</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>4409</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>4431</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>4483</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>4512</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>4633</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>4635</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>4759</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>4936</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>5065</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>5296</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>5402</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>5450</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>5785</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>5862</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>5890</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>6221</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>6456</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>6730</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>6814</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>6830</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>6890</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>7014</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>7097</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>7233</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>7261</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>7279</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>7314</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>7432</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>7529</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>7573</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>7619</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>7705</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>7964</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>8033</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>8183</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>8193</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>8367</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>8403</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>8474</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>8539</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>8725</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
